--- a/natmiOut/OldD7/LR-pairs_lrc2p/Col2a1-Itga10.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Col2a1-Itga10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,9 +76,15 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -86,12 +92,6 @@
   </si>
   <si>
     <t>Itga10</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.468393890126236</v>
+        <v>0.03689833333333333</v>
       </c>
       <c r="H2">
-        <v>0.468393890126236</v>
+        <v>0.110695</v>
       </c>
       <c r="I2">
-        <v>0.8377635379077351</v>
+        <v>0.05266187597972401</v>
       </c>
       <c r="J2">
-        <v>0.8377635379077351</v>
+        <v>0.05266187597972401</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.453189724374204</v>
+        <v>0.5137036666666667</v>
       </c>
       <c r="N2">
-        <v>0.453189724374204</v>
+        <v>1.541111</v>
       </c>
       <c r="O2">
-        <v>0.1207970178116196</v>
+        <v>0.1150126437629128</v>
       </c>
       <c r="P2">
-        <v>0.1207970178116196</v>
+        <v>0.1150126437629128</v>
       </c>
       <c r="Q2">
-        <v>0.2122712979648701</v>
+        <v>0.01895480912722222</v>
       </c>
       <c r="R2">
-        <v>0.2122712979648701</v>
+        <v>0.170593282145</v>
       </c>
       <c r="S2">
-        <v>0.1011993370105661</v>
+        <v>0.006056781581942693</v>
       </c>
       <c r="T2">
-        <v>0.1011993370105661</v>
+        <v>0.006056781581942693</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.468393890126236</v>
+        <v>0.03689833333333333</v>
       </c>
       <c r="H3">
-        <v>0.468393890126236</v>
+        <v>0.110695</v>
       </c>
       <c r="I3">
-        <v>0.8377635379077351</v>
+        <v>0.05266187597972401</v>
       </c>
       <c r="J3">
-        <v>0.8377635379077351</v>
+        <v>0.05266187597972401</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.28273191729494</v>
+        <v>2.313512</v>
       </c>
       <c r="N3">
-        <v>2.28273191729494</v>
+        <v>6.940536</v>
       </c>
       <c r="O3">
-        <v>0.6084586504104884</v>
+        <v>0.5179700842390145</v>
       </c>
       <c r="P3">
-        <v>0.6084586504104884</v>
+        <v>0.5179700842390145</v>
       </c>
       <c r="Q3">
-        <v>1.069217682857098</v>
+        <v>0.08536473694666666</v>
       </c>
       <c r="R3">
-        <v>1.069217682857098</v>
+        <v>0.7682826325199998</v>
       </c>
       <c r="S3">
-        <v>0.5097444716384565</v>
+        <v>0.02727727633740218</v>
       </c>
       <c r="T3">
-        <v>0.5097444716384565</v>
+        <v>0.02727727633740218</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.468393890126236</v>
+        <v>0.03689833333333333</v>
       </c>
       <c r="H4">
-        <v>0.468393890126236</v>
+        <v>0.110695</v>
       </c>
       <c r="I4">
-        <v>0.8377635379077351</v>
+        <v>0.05266187597972401</v>
       </c>
       <c r="J4">
-        <v>0.8377635379077351</v>
+        <v>0.05266187597972401</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.127184479307831</v>
+        <v>0.163003</v>
       </c>
       <c r="N4">
-        <v>0.127184479307831</v>
+        <v>0.489009</v>
       </c>
       <c r="O4">
-        <v>0.03390082560570989</v>
+        <v>0.03649459248156572</v>
       </c>
       <c r="P4">
-        <v>0.03390082560570989</v>
+        <v>0.03649459248156572</v>
       </c>
       <c r="Q4">
-        <v>0.05957243302667473</v>
+        <v>0.006014539028333332</v>
       </c>
       <c r="R4">
-        <v>0.05957243302667473</v>
+        <v>0.05413085125499999</v>
       </c>
       <c r="S4">
-        <v>0.02840087559743266</v>
+        <v>0.001921873703194782</v>
       </c>
       <c r="T4">
-        <v>0.02840087559743266</v>
+        <v>0.001921873703194783</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.468393890126236</v>
+        <v>0.03689833333333333</v>
       </c>
       <c r="H5">
-        <v>0.468393890126236</v>
+        <v>0.110695</v>
       </c>
       <c r="I5">
-        <v>0.8377635379077351</v>
+        <v>0.05266187597972401</v>
       </c>
       <c r="J5">
-        <v>0.8377635379077351</v>
+        <v>0.05266187597972401</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.888557062305777</v>
+        <v>1.476278666666667</v>
       </c>
       <c r="N5">
-        <v>0.888557062305777</v>
+        <v>4.428836</v>
       </c>
       <c r="O5">
-        <v>0.2368435061721822</v>
+        <v>0.330522679516507</v>
       </c>
       <c r="P5">
-        <v>0.2368435061721822</v>
+        <v>0.330522679516507</v>
       </c>
       <c r="Q5">
-        <v>0.4161946990125431</v>
+        <v>0.05447222233555555</v>
       </c>
       <c r="R5">
-        <v>0.4161946990125431</v>
+        <v>0.4902500010199999</v>
       </c>
       <c r="S5">
-        <v>0.1984188536612798</v>
+        <v>0.01740594435718436</v>
       </c>
       <c r="T5">
-        <v>0.1984188536612798</v>
+        <v>0.01740594435718436</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.09070646329332439</v>
+        <v>0.4788196666666666</v>
       </c>
       <c r="H6">
-        <v>0.09070646329332439</v>
+        <v>1.436459</v>
       </c>
       <c r="I6">
-        <v>0.1622364620922648</v>
+        <v>0.6833788852970629</v>
       </c>
       <c r="J6">
-        <v>0.1622364620922648</v>
+        <v>0.6833788852970629</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.453189724374204</v>
+        <v>0.5137036666666667</v>
       </c>
       <c r="N6">
-        <v>0.453189724374204</v>
+        <v>1.541111</v>
       </c>
       <c r="O6">
-        <v>0.1207970178116196</v>
+        <v>0.1150126437629128</v>
       </c>
       <c r="P6">
-        <v>0.1207970178116196</v>
+        <v>0.1150126437629128</v>
       </c>
       <c r="Q6">
-        <v>0.04110723709886054</v>
+        <v>0.2459714184387778</v>
       </c>
       <c r="R6">
-        <v>0.04110723709886054</v>
+        <v>2.213742765949</v>
       </c>
       <c r="S6">
-        <v>0.01959768080105346</v>
+        <v>0.07859721228976756</v>
       </c>
       <c r="T6">
-        <v>0.01959768080105346</v>
+        <v>0.07859721228976756</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.09070646329332439</v>
+        <v>0.4788196666666666</v>
       </c>
       <c r="H7">
-        <v>0.09070646329332439</v>
+        <v>1.436459</v>
       </c>
       <c r="I7">
-        <v>0.1622364620922648</v>
+        <v>0.6833788852970629</v>
       </c>
       <c r="J7">
-        <v>0.1622364620922648</v>
+        <v>0.6833788852970629</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.28273191729494</v>
+        <v>2.313512</v>
       </c>
       <c r="N7">
-        <v>2.28273191729494</v>
+        <v>6.940536</v>
       </c>
       <c r="O7">
-        <v>0.6084586504104884</v>
+        <v>0.5179700842390145</v>
       </c>
       <c r="P7">
-        <v>0.6084586504104884</v>
+        <v>0.5179700842390145</v>
       </c>
       <c r="Q7">
-        <v>0.2070585388646135</v>
+        <v>1.107755044669333</v>
       </c>
       <c r="R7">
-        <v>0.2070585388646135</v>
+        <v>9.969795402023999</v>
       </c>
       <c r="S7">
-        <v>0.09871417877203183</v>
+        <v>0.3539698187844835</v>
       </c>
       <c r="T7">
-        <v>0.09871417877203183</v>
+        <v>0.3539698187844835</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.09070646329332439</v>
+        <v>0.4788196666666666</v>
       </c>
       <c r="H8">
-        <v>0.09070646329332439</v>
+        <v>1.436459</v>
       </c>
       <c r="I8">
-        <v>0.1622364620922648</v>
+        <v>0.6833788852970629</v>
       </c>
       <c r="J8">
-        <v>0.1622364620922648</v>
+        <v>0.6833788852970629</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.127184479307831</v>
+        <v>0.163003</v>
       </c>
       <c r="N8">
-        <v>0.127184479307831</v>
+        <v>0.489009</v>
       </c>
       <c r="O8">
-        <v>0.03390082560570989</v>
+        <v>0.03649459248156572</v>
       </c>
       <c r="P8">
-        <v>0.03390082560570989</v>
+        <v>0.03649459248156572</v>
       </c>
       <c r="Q8">
-        <v>0.01153645430381635</v>
+        <v>0.07804904212566666</v>
       </c>
       <c r="R8">
-        <v>0.01153645430381635</v>
+        <v>0.7024413791309999</v>
       </c>
       <c r="S8">
-        <v>0.005499950008277234</v>
+        <v>0.02493963392942295</v>
       </c>
       <c r="T8">
-        <v>0.005499950008277234</v>
+        <v>0.02493963392942296</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,557 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.4788196666666666</v>
+      </c>
+      <c r="H9">
+        <v>1.436459</v>
+      </c>
+      <c r="I9">
+        <v>0.6833788852970629</v>
+      </c>
+      <c r="J9">
+        <v>0.6833788852970629</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1.476278666666667</v>
+      </c>
+      <c r="N9">
+        <v>4.428836</v>
+      </c>
+      <c r="O9">
+        <v>0.330522679516507</v>
+      </c>
+      <c r="P9">
+        <v>0.330522679516507</v>
+      </c>
+      <c r="Q9">
+        <v>0.7068712590804443</v>
+      </c>
+      <c r="R9">
+        <v>6.361841331723999</v>
+      </c>
+      <c r="S9">
+        <v>0.225872220293389</v>
+      </c>
+      <c r="T9">
+        <v>0.225872220293389</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.04138933333333333</v>
+      </c>
+      <c r="H10">
+        <v>0.124168</v>
+      </c>
+      <c r="I10">
+        <v>0.05907150112155356</v>
+      </c>
+      <c r="J10">
+        <v>0.05907150112155357</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.5137036666666667</v>
+      </c>
+      <c r="N10">
+        <v>1.541111</v>
+      </c>
+      <c r="O10">
+        <v>0.1150126437629128</v>
+      </c>
+      <c r="P10">
+        <v>0.1150126437629128</v>
+      </c>
+      <c r="Q10">
+        <v>0.02126185229422222</v>
+      </c>
+      <c r="R10">
+        <v>0.191356670648</v>
+      </c>
+      <c r="S10">
+        <v>0.006793969515033745</v>
+      </c>
+      <c r="T10">
+        <v>0.006793969515033745</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.04138933333333333</v>
+      </c>
+      <c r="H11">
+        <v>0.124168</v>
+      </c>
+      <c r="I11">
+        <v>0.05907150112155356</v>
+      </c>
+      <c r="J11">
+        <v>0.05907150112155357</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>2.313512</v>
+      </c>
+      <c r="N11">
+        <v>6.940536</v>
+      </c>
+      <c r="O11">
+        <v>0.5179700842390145</v>
+      </c>
+      <c r="P11">
+        <v>0.5179700842390145</v>
+      </c>
+      <c r="Q11">
+        <v>0.09575471933866665</v>
+      </c>
+      <c r="R11">
+        <v>0.861792474048</v>
+      </c>
+      <c r="S11">
+        <v>0.03059727041205614</v>
+      </c>
+      <c r="T11">
+        <v>0.03059727041205614</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.04138933333333333</v>
+      </c>
+      <c r="H12">
+        <v>0.124168</v>
+      </c>
+      <c r="I12">
+        <v>0.05907150112155356</v>
+      </c>
+      <c r="J12">
+        <v>0.05907150112155357</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.163003</v>
+      </c>
+      <c r="N12">
+        <v>0.489009</v>
+      </c>
+      <c r="O12">
+        <v>0.03649459248156572</v>
+      </c>
+      <c r="P12">
+        <v>0.03649459248156572</v>
+      </c>
+      <c r="Q12">
+        <v>0.006746585501333333</v>
+      </c>
+      <c r="R12">
+        <v>0.060719269512</v>
+      </c>
+      <c r="S12">
+        <v>0.002155790360705449</v>
+      </c>
+      <c r="T12">
+        <v>0.00215579036070545</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.04138933333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.124168</v>
+      </c>
+      <c r="I13">
+        <v>0.05907150112155356</v>
+      </c>
+      <c r="J13">
+        <v>0.05907150112155357</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.476278666666667</v>
+      </c>
+      <c r="N13">
+        <v>4.428836</v>
+      </c>
+      <c r="O13">
+        <v>0.330522679516507</v>
+      </c>
+      <c r="P13">
+        <v>0.330522679516507</v>
+      </c>
+      <c r="Q13">
+        <v>0.06110218982755555</v>
+      </c>
+      <c r="R13">
+        <v>0.549919708448</v>
+      </c>
+      <c r="S13">
+        <v>0.01952447083375823</v>
+      </c>
+      <c r="T13">
+        <v>0.01952447083375824</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.1435576666666667</v>
+      </c>
+      <c r="H14">
+        <v>0.430673</v>
+      </c>
+      <c r="I14">
+        <v>0.2048877376016593</v>
+      </c>
+      <c r="J14">
+        <v>0.2048877376016594</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.5137036666666667</v>
+      </c>
+      <c r="N14">
+        <v>1.541111</v>
+      </c>
+      <c r="O14">
+        <v>0.1150126437629128</v>
+      </c>
+      <c r="P14">
+        <v>0.1150126437629128</v>
+      </c>
+      <c r="Q14">
+        <v>0.07374609974477778</v>
+      </c>
+      <c r="R14">
+        <v>0.663714897703</v>
+      </c>
+      <c r="S14">
+        <v>0.0235646803761688</v>
+      </c>
+      <c r="T14">
+        <v>0.02356468037616881</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
         <v>21</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0.09070646329332439</v>
-      </c>
-      <c r="H9">
-        <v>0.09070646329332439</v>
-      </c>
-      <c r="I9">
-        <v>0.1622364620922648</v>
-      </c>
-      <c r="J9">
-        <v>0.1622364620922648</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>0.888557062305777</v>
-      </c>
-      <c r="N9">
-        <v>0.888557062305777</v>
-      </c>
-      <c r="O9">
-        <v>0.2368435061721822</v>
-      </c>
-      <c r="P9">
-        <v>0.2368435061721822</v>
-      </c>
-      <c r="Q9">
-        <v>0.08059786855606312</v>
-      </c>
-      <c r="R9">
-        <v>0.08059786855606312</v>
-      </c>
-      <c r="S9">
-        <v>0.03842465251090232</v>
-      </c>
-      <c r="T9">
-        <v>0.03842465251090232</v>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.1435576666666667</v>
+      </c>
+      <c r="H15">
+        <v>0.430673</v>
+      </c>
+      <c r="I15">
+        <v>0.2048877376016593</v>
+      </c>
+      <c r="J15">
+        <v>0.2048877376016594</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>2.313512</v>
+      </c>
+      <c r="N15">
+        <v>6.940536</v>
+      </c>
+      <c r="O15">
+        <v>0.5179700842390145</v>
+      </c>
+      <c r="P15">
+        <v>0.5179700842390145</v>
+      </c>
+      <c r="Q15">
+        <v>0.3321223845253333</v>
+      </c>
+      <c r="R15">
+        <v>2.989101460728</v>
+      </c>
+      <c r="S15">
+        <v>0.1061257187050726</v>
+      </c>
+      <c r="T15">
+        <v>0.1061257187050726</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.1435576666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.430673</v>
+      </c>
+      <c r="I16">
+        <v>0.2048877376016593</v>
+      </c>
+      <c r="J16">
+        <v>0.2048877376016594</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.163003</v>
+      </c>
+      <c r="N16">
+        <v>0.489009</v>
+      </c>
+      <c r="O16">
+        <v>0.03649459248156572</v>
+      </c>
+      <c r="P16">
+        <v>0.03649459248156572</v>
+      </c>
+      <c r="Q16">
+        <v>0.02340033033966666</v>
+      </c>
+      <c r="R16">
+        <v>0.210602973057</v>
+      </c>
+      <c r="S16">
+        <v>0.007477294488242527</v>
+      </c>
+      <c r="T16">
+        <v>0.00747729448824253</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.1435576666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.430673</v>
+      </c>
+      <c r="I17">
+        <v>0.2048877376016593</v>
+      </c>
+      <c r="J17">
+        <v>0.2048877376016594</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1.476278666666667</v>
+      </c>
+      <c r="N17">
+        <v>4.428836</v>
+      </c>
+      <c r="O17">
+        <v>0.330522679516507</v>
+      </c>
+      <c r="P17">
+        <v>0.330522679516507</v>
+      </c>
+      <c r="Q17">
+        <v>0.2119311207364444</v>
+      </c>
+      <c r="R17">
+        <v>1.907380086628</v>
+      </c>
+      <c r="S17">
+        <v>0.06772004403217544</v>
+      </c>
+      <c r="T17">
+        <v>0.06772004403217545</v>
       </c>
     </row>
   </sheetData>
